--- a/po_analysis_by_asin/B09Z6VRX8F_po_data.xlsx
+++ b/po_analysis_by_asin/B09Z6VRX8F_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -645,7 +646,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -719,6 +720,453 @@
       </c>
       <c r="B10" t="n">
         <v>834</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>122</v>
+      </c>
+      <c r="C2" t="n">
+        <v>13.11243852860275</v>
+      </c>
+      <c r="D2" t="n">
+        <v>229.4650726286971</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>121</v>
+      </c>
+      <c r="C3" t="n">
+        <v>15.2045297926248</v>
+      </c>
+      <c r="D3" t="n">
+        <v>225.6619904694245</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>121</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7.790564752204543</v>
+      </c>
+      <c r="D4" t="n">
+        <v>224.9422920160023</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>118</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12.86600906581908</v>
+      </c>
+      <c r="D5" t="n">
+        <v>229.292316787188</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>118</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.120963724037024</v>
+      </c>
+      <c r="D6" t="n">
+        <v>229.4820235704458</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>117</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.215455363283253</v>
+      </c>
+      <c r="D7" t="n">
+        <v>217.9954665142484</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>115</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8.491661805822826</v>
+      </c>
+      <c r="D8" t="n">
+        <v>226.7886586968094</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>112</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-3.561690702316346</v>
+      </c>
+      <c r="D9" t="n">
+        <v>231.1971105944764</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>111</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.595597938840538</v>
+      </c>
+      <c r="D10" t="n">
+        <v>214.596350831855</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>110</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7.701594686501076</v>
+      </c>
+      <c r="D11" t="n">
+        <v>215.6111456907157</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>110</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-7.199893217164924</v>
+      </c>
+      <c r="D12" t="n">
+        <v>213.8476485385872</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>110</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-8.730762380811663</v>
+      </c>
+      <c r="D13" t="n">
+        <v>219.6559504328542</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>109</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6.891982046012372</v>
+      </c>
+      <c r="D14" t="n">
+        <v>221.1982895646657</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>109</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.1565462564405934</v>
+      </c>
+      <c r="D15" t="n">
+        <v>216.6898075642241</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>109</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-5.63643055573695</v>
+      </c>
+      <c r="D16" t="n">
+        <v>224.0780976301795</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>108</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4.760066011427082</v>
+      </c>
+      <c r="D17" t="n">
+        <v>210.2308106258598</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>108</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-3.705113346036154</v>
+      </c>
+      <c r="D18" t="n">
+        <v>217.0949077404881</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>108</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7512575800990327</v>
+      </c>
+      <c r="D19" t="n">
+        <v>217.0984037408506</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>107</v>
+      </c>
+      <c r="C20" t="n">
+        <v>10.4758388235612</v>
+      </c>
+      <c r="D20" t="n">
+        <v>216.2543948204128</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>107</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-7.681180061340684</v>
+      </c>
+      <c r="D21" t="n">
+        <v>222.1296214534354</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>107</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8287951077818696</v>
+      </c>
+      <c r="D22" t="n">
+        <v>216.9440831094501</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>106</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-4.316437516135844</v>
+      </c>
+      <c r="D23" t="n">
+        <v>221.7040087438546</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>106</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.12368816476789</v>
+      </c>
+      <c r="D24" t="n">
+        <v>213.6778438484169</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45284.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>105</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.071023197233975</v>
+      </c>
+      <c r="D25" t="n">
+        <v>211.7807343407035</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>105</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2.304706151336144</v>
+      </c>
+      <c r="D26" t="n">
+        <v>207.9684287177844</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>105</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-7.500730384712461</v>
+      </c>
+      <c r="D27" t="n">
+        <v>217.69307295035</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>104</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-4.74284894436361</v>
+      </c>
+      <c r="D28" t="n">
+        <v>215.6096101814055</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>104</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.4956776041655725</v>
+      </c>
+      <c r="D29" t="n">
+        <v>208.2934525040605</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>104</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-4.356741251384051</v>
+      </c>
+      <c r="D30" t="n">
+        <v>210.970187841945</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B09Z6VRX8F_po_data.xlsx
+++ b/po_analysis_by_asin/B09Z6VRX8F_po_data.xlsx
@@ -733,7 +733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -752,16 +752,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -770,12 +760,6 @@
       <c r="B2" t="n">
         <v>122</v>
       </c>
-      <c r="C2" t="n">
-        <v>13.11243852860275</v>
-      </c>
-      <c r="D2" t="n">
-        <v>229.4650726286971</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -784,12 +768,6 @@
       <c r="B3" t="n">
         <v>121</v>
       </c>
-      <c r="C3" t="n">
-        <v>15.2045297926248</v>
-      </c>
-      <c r="D3" t="n">
-        <v>225.6619904694245</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -798,12 +776,6 @@
       <c r="B4" t="n">
         <v>121</v>
       </c>
-      <c r="C4" t="n">
-        <v>7.790564752204543</v>
-      </c>
-      <c r="D4" t="n">
-        <v>224.9422920160023</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -812,12 +784,6 @@
       <c r="B5" t="n">
         <v>118</v>
       </c>
-      <c r="C5" t="n">
-        <v>12.86600906581908</v>
-      </c>
-      <c r="D5" t="n">
-        <v>229.292316787188</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -826,12 +792,6 @@
       <c r="B6" t="n">
         <v>118</v>
       </c>
-      <c r="C6" t="n">
-        <v>1.120963724037024</v>
-      </c>
-      <c r="D6" t="n">
-        <v>229.4820235704458</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -840,12 +800,6 @@
       <c r="B7" t="n">
         <v>117</v>
       </c>
-      <c r="C7" t="n">
-        <v>4.215455363283253</v>
-      </c>
-      <c r="D7" t="n">
-        <v>217.9954665142484</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -854,12 +808,6 @@
       <c r="B8" t="n">
         <v>115</v>
       </c>
-      <c r="C8" t="n">
-        <v>8.491661805822826</v>
-      </c>
-      <c r="D8" t="n">
-        <v>226.7886586968094</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -868,12 +816,6 @@
       <c r="B9" t="n">
         <v>112</v>
       </c>
-      <c r="C9" t="n">
-        <v>-3.561690702316346</v>
-      </c>
-      <c r="D9" t="n">
-        <v>231.1971105944764</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -882,12 +824,6 @@
       <c r="B10" t="n">
         <v>111</v>
       </c>
-      <c r="C10" t="n">
-        <v>5.595597938840538</v>
-      </c>
-      <c r="D10" t="n">
-        <v>214.596350831855</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -896,12 +832,6 @@
       <c r="B11" t="n">
         <v>110</v>
       </c>
-      <c r="C11" t="n">
-        <v>7.701594686501076</v>
-      </c>
-      <c r="D11" t="n">
-        <v>215.6111456907157</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -910,12 +840,6 @@
       <c r="B12" t="n">
         <v>110</v>
       </c>
-      <c r="C12" t="n">
-        <v>-7.199893217164924</v>
-      </c>
-      <c r="D12" t="n">
-        <v>213.8476485385872</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -924,12 +848,6 @@
       <c r="B13" t="n">
         <v>110</v>
       </c>
-      <c r="C13" t="n">
-        <v>-8.730762380811663</v>
-      </c>
-      <c r="D13" t="n">
-        <v>219.6559504328542</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -938,12 +856,6 @@
       <c r="B14" t="n">
         <v>109</v>
       </c>
-      <c r="C14" t="n">
-        <v>6.891982046012372</v>
-      </c>
-      <c r="D14" t="n">
-        <v>221.1982895646657</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -952,12 +864,6 @@
       <c r="B15" t="n">
         <v>109</v>
       </c>
-      <c r="C15" t="n">
-        <v>-0.1565462564405934</v>
-      </c>
-      <c r="D15" t="n">
-        <v>216.6898075642241</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -966,12 +872,6 @@
       <c r="B16" t="n">
         <v>109</v>
       </c>
-      <c r="C16" t="n">
-        <v>-5.63643055573695</v>
-      </c>
-      <c r="D16" t="n">
-        <v>224.0780976301795</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -980,12 +880,6 @@
       <c r="B17" t="n">
         <v>108</v>
       </c>
-      <c r="C17" t="n">
-        <v>4.760066011427082</v>
-      </c>
-      <c r="D17" t="n">
-        <v>210.2308106258598</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -994,12 +888,6 @@
       <c r="B18" t="n">
         <v>108</v>
       </c>
-      <c r="C18" t="n">
-        <v>-3.705113346036154</v>
-      </c>
-      <c r="D18" t="n">
-        <v>217.0949077404881</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1008,12 +896,6 @@
       <c r="B19" t="n">
         <v>108</v>
       </c>
-      <c r="C19" t="n">
-        <v>0.7512575800990327</v>
-      </c>
-      <c r="D19" t="n">
-        <v>217.0984037408506</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1022,12 +904,6 @@
       <c r="B20" t="n">
         <v>107</v>
       </c>
-      <c r="C20" t="n">
-        <v>10.4758388235612</v>
-      </c>
-      <c r="D20" t="n">
-        <v>216.2543948204128</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1036,12 +912,6 @@
       <c r="B21" t="n">
         <v>107</v>
       </c>
-      <c r="C21" t="n">
-        <v>-7.681180061340684</v>
-      </c>
-      <c r="D21" t="n">
-        <v>222.1296214534354</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1050,12 +920,6 @@
       <c r="B22" t="n">
         <v>107</v>
       </c>
-      <c r="C22" t="n">
-        <v>0.8287951077818696</v>
-      </c>
-      <c r="D22" t="n">
-        <v>216.9440831094501</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1064,12 +928,6 @@
       <c r="B23" t="n">
         <v>106</v>
       </c>
-      <c r="C23" t="n">
-        <v>-4.316437516135844</v>
-      </c>
-      <c r="D23" t="n">
-        <v>221.7040087438546</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1078,12 +936,6 @@
       <c r="B24" t="n">
         <v>106</v>
       </c>
-      <c r="C24" t="n">
-        <v>1.12368816476789</v>
-      </c>
-      <c r="D24" t="n">
-        <v>213.6778438484169</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1092,12 +944,6 @@
       <c r="B25" t="n">
         <v>105</v>
       </c>
-      <c r="C25" t="n">
-        <v>2.071023197233975</v>
-      </c>
-      <c r="D25" t="n">
-        <v>211.7807343407035</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1106,12 +952,6 @@
       <c r="B26" t="n">
         <v>105</v>
       </c>
-      <c r="C26" t="n">
-        <v>2.304706151336144</v>
-      </c>
-      <c r="D26" t="n">
-        <v>207.9684287177844</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1120,12 +960,6 @@
       <c r="B27" t="n">
         <v>105</v>
       </c>
-      <c r="C27" t="n">
-        <v>-7.500730384712461</v>
-      </c>
-      <c r="D27" t="n">
-        <v>217.69307295035</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1134,12 +968,6 @@
       <c r="B28" t="n">
         <v>104</v>
       </c>
-      <c r="C28" t="n">
-        <v>-4.74284894436361</v>
-      </c>
-      <c r="D28" t="n">
-        <v>215.6096101814055</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1148,12 +976,6 @@
       <c r="B29" t="n">
         <v>104</v>
       </c>
-      <c r="C29" t="n">
-        <v>0.4956776041655725</v>
-      </c>
-      <c r="D29" t="n">
-        <v>208.2934525040605</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1161,12 +983,6 @@
       </c>
       <c r="B30" t="n">
         <v>104</v>
-      </c>
-      <c r="C30" t="n">
-        <v>-4.356741251384051</v>
-      </c>
-      <c r="D30" t="n">
-        <v>210.970187841945</v>
       </c>
     </row>
   </sheetData>
